--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,125 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E8" s="3">
         <v>195400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>172800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>174200</v>
       </c>
-      <c r="G8" s="3">
-        <v>171200</v>
-      </c>
       <c r="H8" s="3">
+        <v>221500</v>
+      </c>
+      <c r="I8" s="3">
         <v>169500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>164700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>150500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>138300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>120300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E15" s="3">
         <v>34500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>34000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32600</v>
       </c>
-      <c r="G15" s="3">
-        <v>32200</v>
-      </c>
       <c r="H15" s="3">
+        <v>36100</v>
+      </c>
+      <c r="I15" s="3">
         <v>30600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>30200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>30000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>29300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>28500</v>
       </c>
       <c r="M15" s="3">
         <v>28500</v>
       </c>
       <c r="N15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="O15" s="3">
         <v>26800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>24700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E17" s="3">
         <v>94900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78500</v>
       </c>
-      <c r="G17" s="3">
-        <v>79000</v>
-      </c>
       <c r="H17" s="3">
+        <v>124700</v>
+      </c>
+      <c r="I17" s="3">
         <v>72400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>69700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>72900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>69800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>69700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>67200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>71900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E18" s="3">
         <v>100500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>91500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95700</v>
       </c>
-      <c r="G18" s="3">
-        <v>92200</v>
-      </c>
       <c r="H18" s="3">
+        <v>96800</v>
+      </c>
+      <c r="I18" s="3">
         <v>97100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>95000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>89300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>68600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,17 +1211,18 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1197,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1223,163 +1256,175 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E21" s="3">
         <v>135500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>125500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128300</v>
       </c>
-      <c r="G21" s="3">
-        <v>124400</v>
-      </c>
       <c r="H21" s="3">
+        <v>133500</v>
+      </c>
+      <c r="I21" s="3">
         <v>127700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>125200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>119300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>106900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>97100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>89900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>60800</v>
       </c>
       <c r="E22" s="3">
         <v>600</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>52300</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
-        <v>300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>90900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>95300</v>
       </c>
-      <c r="G23" s="3">
-        <v>91900</v>
-      </c>
       <c r="H23" s="3">
+        <v>45100</v>
+      </c>
+      <c r="I23" s="3">
         <v>96800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>94600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E26" s="3">
         <v>100400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>90900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>95300</v>
       </c>
-      <c r="G26" s="3">
-        <v>91900</v>
-      </c>
       <c r="H26" s="3">
+        <v>45100</v>
+      </c>
+      <c r="I26" s="3">
         <v>96800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>94600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>89000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>77100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>76500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>68100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>17800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>18300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>48400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,17 +1773,20 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1725,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1751,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>17800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>18300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>48400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>17800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>18300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>48400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
-        <v>20300</v>
-      </c>
       <c r="H41" s="3">
+        <v>109300</v>
+      </c>
+      <c r="I41" s="3">
         <v>34600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E43" s="3">
         <v>68300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60500</v>
       </c>
-      <c r="G43" s="3">
-        <v>63000</v>
-      </c>
       <c r="H43" s="3">
+        <v>67800</v>
+      </c>
+      <c r="I43" s="3">
         <v>65500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>62500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>59800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,123 +2239,132 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
-        <v>2800</v>
-      </c>
       <c r="H45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E46" s="3">
         <v>79200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>67200</v>
       </c>
-      <c r="G46" s="3">
-        <v>86100</v>
-      </c>
       <c r="H46" s="3">
+        <v>180400</v>
+      </c>
+      <c r="I46" s="3">
         <v>105200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>107000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>108500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>101600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>62200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E47" s="3">
         <v>100800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>90300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>74300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>68600</v>
+      </c>
+      <c r="I47" s="3">
         <v>67300</v>
       </c>
-      <c r="H47" s="3">
-        <v>67300</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>41300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2276,52 +2380,58 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2823100</v>
+        <v>3010900</v>
       </c>
       <c r="E48" s="3">
+        <v>2823900</v>
+      </c>
+      <c r="F48" s="3">
         <v>2757400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2726700</v>
       </c>
-      <c r="G48" s="3">
-        <v>2664100</v>
-      </c>
       <c r="H48" s="3">
+        <v>2735300</v>
+      </c>
+      <c r="I48" s="3">
         <v>2630500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2578300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2527100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2520500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2506400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2507400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2518800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>61900</v>
       </c>
       <c r="E52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2400</v>
       </c>
-      <c r="G52" s="3">
-        <v>2200</v>
-      </c>
       <c r="H52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3277700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3005300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2925900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2870600</v>
       </c>
-      <c r="G54" s="3">
-        <v>2819700</v>
-      </c>
       <c r="H54" s="3">
+        <v>2991200</v>
+      </c>
+      <c r="I54" s="3">
         <v>2805400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2742000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2661300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2635100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2618300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2612700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2591100</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,75 +2749,79 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E57" s="3">
         <v>65300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>47900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28700</v>
       </c>
-      <c r="G57" s="3">
-        <v>31100</v>
-      </c>
       <c r="H57" s="3">
+        <v>34400</v>
+      </c>
+      <c r="I57" s="3">
         <v>36100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>278500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>11300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2708,113 +2841,122 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E59" s="3">
         <v>61100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36200</v>
       </c>
-      <c r="G59" s="3">
-        <v>71300</v>
-      </c>
       <c r="H59" s="3">
+        <v>92400</v>
+      </c>
+      <c r="I59" s="3">
         <v>75700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E60" s="3">
         <v>126400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64900</v>
       </c>
-      <c r="G60" s="3">
-        <v>102400</v>
-      </c>
       <c r="H60" s="3">
+        <v>138100</v>
+      </c>
+      <c r="I60" s="3">
         <v>111800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>74400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>48900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>313600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1753500</v>
+      </c>
+      <c r="E61" s="3">
         <v>11000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>7000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>969800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2840,52 +2982,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E62" s="3">
         <v>10900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14600</v>
       </c>
-      <c r="G62" s="3">
-        <v>6400</v>
-      </c>
       <c r="H62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I62" s="3">
         <v>6000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>5500</v>
       </c>
       <c r="J62" s="3">
         <v>5500</v>
       </c>
       <c r="K62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3146200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2498900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2416200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2356200</v>
       </c>
-      <c r="G66" s="3">
-        <v>2302900</v>
-      </c>
       <c r="H66" s="3">
+        <v>2473200</v>
+      </c>
+      <c r="I66" s="3">
         <v>2286100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2222500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2141300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2114300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2095100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2089500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>318100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,34 +3330,37 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>15500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>15300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>15100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>14900</v>
       </c>
       <c r="H70" s="3">
         <v>14900</v>
       </c>
       <c r="I70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="J70" s="3">
         <v>14700</v>
       </c>
       <c r="K70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="L70" s="3">
         <v>14800</v>
@@ -3202,7 +3369,7 @@
         <v>14800</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3298,8 +3471,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E76" s="3">
         <v>490900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>494400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>499300</v>
       </c>
-      <c r="G76" s="3">
-        <v>501900</v>
-      </c>
       <c r="H76" s="3">
+        <v>503100</v>
+      </c>
+      <c r="I76" s="3">
         <v>504400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>504800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>505300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>506000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>508400</v>
       </c>
       <c r="M76" s="3">
         <v>508400</v>
       </c>
       <c r="N76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="O76" s="3">
         <v>2273000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>17800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>18300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>48400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E83" s="3">
         <v>34500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32600</v>
       </c>
-      <c r="G83" s="3">
-        <v>32200</v>
-      </c>
       <c r="H83" s="3">
+        <v>36100</v>
+      </c>
+      <c r="I83" s="3">
         <v>30600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>28500</v>
       </c>
       <c r="M83" s="3">
         <v>28500</v>
       </c>
       <c r="N83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="O83" s="3">
         <v>26800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E89" s="3">
         <v>117800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>148300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>126100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>126200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>115400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>141500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>110500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>120900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>75600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-47400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-219100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-79000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-127500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-71700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-93000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-77000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-21500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-47400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-65300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>19400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-20800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>55800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-18600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-17900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>80200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-82400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-50200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-65000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-59000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-83400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -4388,7 +4388,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-82900</v>
       </c>
       <c r="E96" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,116 +674,143 @@
     <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>266500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>264800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>269800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>290800</v>
+      </c>
+      <c r="H8" s="3">
         <v>305900</v>
       </c>
-      <c r="E8" s="3">
-        <v>195400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>172800</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
+        <v>214900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>190300</v>
+      </c>
+      <c r="K8" s="3">
         <v>174200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>221500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>169500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>164700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>157000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>150500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>146700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>138300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>130300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>120300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +856,20 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +915,20 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +946,12 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +997,20 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1056,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1115,79 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>39500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>38900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>38500</v>
+      </c>
+      <c r="H15" s="3">
         <v>41400</v>
       </c>
-      <c r="E15" s="3">
-        <v>34500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>34000</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K15" s="3">
         <v>32600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>36100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>30600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>30200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>30000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>29300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
         <v>28500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="R15" s="3">
         <v>28500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <v>26800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="T15" s="3">
         <v>24700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="U15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1202,130 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>127600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="H17" s="3">
         <v>217000</v>
       </c>
-      <c r="E17" s="3">
-        <v>94900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>81300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>115600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>99100</v>
+      </c>
+      <c r="K17" s="3">
         <v>78500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>124700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>72400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>69700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>67700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>72900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>69800</v>
       </c>
       <c r="N17" s="3">
         <v>69700</v>
       </c>
       <c r="O17" s="3">
+        <v>67700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>72900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>69800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>69700</v>
+      </c>
+      <c r="S17" s="3">
         <v>67200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>71900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>137200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>131800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>152800</v>
+      </c>
+      <c r="H18" s="3">
         <v>88900</v>
       </c>
-      <c r="E18" s="3">
-        <v>100500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>91500</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>99300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>91200</v>
+      </c>
+      <c r="K18" s="3">
         <v>95700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>96800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>97100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>95000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>89300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>77600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>76900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>68600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>63100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>48400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,38 +1343,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1259,184 +1394,232 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>134200</v>
+        <v>197800</v>
       </c>
       <c r="E21" s="3">
-        <v>135500</v>
+        <v>180300</v>
       </c>
       <c r="F21" s="3">
-        <v>125500</v>
+        <v>171700</v>
       </c>
       <c r="G21" s="3">
+        <v>194000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>130300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>135800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K21" s="3">
         <v>128300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>133500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>127700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>125200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>119300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>106900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>105400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>97100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>89900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>73100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H22" s="3">
         <v>60800</v>
       </c>
-      <c r="E22" s="3">
-        <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>600</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>52300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>109500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>130700</v>
+      </c>
+      <c r="H23" s="3">
         <v>32000</v>
       </c>
-      <c r="E23" s="3">
-        <v>100400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>90900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>87400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K23" s="3">
         <v>95300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>45100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>96800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>94600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>89000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>77100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>76500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>68100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>63100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>48400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1447,8 +1630,20 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1689,138 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>115800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>107800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>129000</v>
+      </c>
+      <c r="H26" s="3">
         <v>32100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>90900</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>87400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K26" s="3">
         <v>95300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>45100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>96800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>94600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>89000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>77100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>76500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>68100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>63100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>48400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H27" s="3">
         <v>15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>17800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>16700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>18300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>17400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>16700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>14500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>11200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>48400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1866,20 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1925,20 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1984,20 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,38 +2043,50 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1823,55 +2102,79 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H33" s="3">
         <v>15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>17800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>17300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>16700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>18300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>17400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>16700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>14500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>14700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>11200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>48400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2220,143 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H35" s="3">
         <v>15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>17800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>17300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>16700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>18300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>17400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>16700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>14500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>14700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>11200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>48400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2374,12 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2397,71 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>14900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>109300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>56500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>37500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>47200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>48000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>43000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2507,79 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>92900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>84900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>107100</v>
+      </c>
+      <c r="H43" s="3">
         <v>87900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="I43" s="3">
         <v>68300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
         <v>60100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="K43" s="3">
         <v>60500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>67800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>65500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>62500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>67700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>59800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="Q43" s="3">
         <v>59700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="R43" s="3">
         <v>58100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="S43" s="3">
         <v>60300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,196 +2625,256 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>87900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>113200</v>
+      </c>
+      <c r="H46" s="3">
         <v>95900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="I46" s="3">
         <v>79200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>76100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>67200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>180400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>105200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>119700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>107000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>111400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="Q46" s="3">
         <v>108500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="R46" s="3">
         <v>101600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="S46" s="3">
         <v>62200</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>108700</v>
+      </c>
+      <c r="G47" s="3">
+        <v>111600</v>
+      </c>
+      <c r="H47" s="3">
         <v>109000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="I47" s="3">
         <v>100800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="J47" s="3">
         <v>90300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="K47" s="3">
         <v>74300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>68600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>67300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>41300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>24300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3111300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3103300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3068600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3028700</v>
+      </c>
+      <c r="H48" s="3">
         <v>3010900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="I48" s="3">
         <v>2823900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>2757400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>2726700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>2735300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>2630500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>2578300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>2527100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>2520500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>2506400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>2507400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>2518800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2920,20 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2979,20 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +3038,79 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>58400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>61000</v>
+      </c>
+      <c r="H52" s="3">
         <v>61900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
         <v>3700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="S52" s="3">
         <v>10100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +3156,79 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3374500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3371700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3323600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>3314500</v>
+      </c>
+      <c r="H54" s="3">
         <v>3277700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>3005300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>2925900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>2870600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>2991200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>2805400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>2742000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>2661300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>2635100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>2618300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>2612700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>2591100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3246,12 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,90 +3269,106 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>59900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>56000</v>
+      </c>
+      <c r="H57" s="3">
         <v>78500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>65300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>47900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>28700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>34400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>36100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>42500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>35500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>34700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>19200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>22700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>278500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2500</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>11300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,132 +3379,168 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>94500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>87300</v>
+      </c>
+      <c r="H59" s="3">
         <v>97600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>61100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>46200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>36200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>92400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>75700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>59200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>34900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>39700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>31500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>26200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>35100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>132300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>157800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>145800</v>
+      </c>
+      <c r="H60" s="3">
         <v>176100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>126400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>94100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>64900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>138100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>111800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>101700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>70400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>74400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>50700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>48900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>313600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1895500</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1822700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1812100</v>
+      </c>
+      <c r="H61" s="3">
         <v>1753500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>11000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>969800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2985,55 +3556,79 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H62" s="3">
         <v>16000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="I62" s="3">
         <v>10900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>14500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>7200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5400</v>
       </c>
       <c r="M62" s="3">
         <v>6000</v>
       </c>
       <c r="N62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="S62" s="3">
         <v>4500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3674,20 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3733,20 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3792,79 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3249500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3245500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3195400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3183800</v>
+      </c>
+      <c r="H66" s="3">
         <v>3146200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>2498900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>2416200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>2356200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>2473200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>2286100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>2222500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>2141300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>2114300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>2095100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>2089500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>318100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3882,12 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3933,20 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3992,20 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3342,46 +4013,58 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>15500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="J70" s="3">
         <v>15300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="K70" s="3">
         <v>15100</v>
       </c>
-      <c r="H70" s="3">
+      <c r="L70" s="3">
         <v>14900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="M70" s="3">
         <v>14900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="N70" s="3">
         <v>14700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="O70" s="3">
         <v>14700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="P70" s="3">
         <v>14800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="Q70" s="3">
         <v>14800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="R70" s="3">
         <v>14800</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +4110,20 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3474,8 +4169,20 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4228,20 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4287,20 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4346,79 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>126200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>128200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>130700</v>
+      </c>
+      <c r="H76" s="3">
         <v>131500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>490900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>494400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>499300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>503100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>504400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>504800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>505300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>506000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>508400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>508400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>2273000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4464,143 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H81" s="3">
         <v>15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>17800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>17300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>16700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>18300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>17400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>16700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>14500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>14700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>11200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>48400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4618,71 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="E83" s="3">
-        <v>34500</v>
+        <v>39500</v>
       </c>
       <c r="F83" s="3">
-        <v>34000</v>
+        <v>38900</v>
       </c>
       <c r="G83" s="3">
+        <v>38500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>37500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K83" s="3">
         <v>32600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>36100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>30600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>30200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>30000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>29300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>28500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>28500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>26800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="T83" s="3">
         <v>24700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="U83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4728,20 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4787,20 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4846,20 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4905,20 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4964,79 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>149600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>177400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>140200</v>
+      </c>
+      <c r="H89" s="3">
         <v>78500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>117800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>148300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>126100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>126200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>115400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>141500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>110500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>120900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>101200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>102200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>75600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>102100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +5054,71 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-122000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
         <v>-55900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="K91" s="3">
         <v>-59500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-71700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-67000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-60000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-36900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-38300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-21500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="R91" s="3">
         <v>-29200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="S91" s="3">
         <v>-47400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="T91" s="3">
         <v>-65300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +5164,20 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +5223,79 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-78100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-219100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="I94" s="3">
         <v>-79000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>-71900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
         <v>-127500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-71700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-93000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-77000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-61200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-38300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-21500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>-29200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>-47400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>-65300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +5313,71 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-82900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="I96" s="3">
         <v>-1100</v>
       </c>
-      <c r="F96" s="3">
-        <v>19400</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-20800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>55800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-19300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-18600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-17900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-17200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="Q96" s="3">
         <v>80200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-82400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5423,20 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5482,20 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5541,79 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>51400</v>
+        <v>-119800</v>
       </c>
       <c r="E100" s="3">
         <v>-50200</v>
       </c>
       <c r="F100" s="3">
-        <v>-65000</v>
+        <v>-109100</v>
       </c>
       <c r="G100" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-68800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-44300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-45500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-59000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>-83400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>-74700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>-30300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>-28200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5659,75 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-89200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="I102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>-16800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-14300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-21900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>42700</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>288800</v>
+      </c>
+      <c r="E8" s="3">
         <v>266500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>264800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>269800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>290800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>305900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>214900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>190300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>221500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>169500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>164700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>157000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>150500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>146700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>130300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>120300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,67 +1147,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E15" s="3">
         <v>40000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>39500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>38900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>38500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>36000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>32600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>36100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>30600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>28500</v>
       </c>
       <c r="R15" s="3">
         <v>28500</v>
       </c>
       <c r="S15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="T15" s="3">
         <v>26800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E17" s="3">
         <v>111800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>138000</v>
       </c>
       <c r="G17" s="3">
         <v>138000</v>
       </c>
       <c r="H17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="I17" s="3">
         <v>217000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>124700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>72400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>69700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>67700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>69800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>182500</v>
+      </c>
+      <c r="E18" s="3">
         <v>154700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>137200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>131800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>152800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>88900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>99300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>91200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>89300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>77600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>48400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,41 +1380,42 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1406,223 +1440,235 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E21" s="3">
         <v>197800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>180300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>171700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>194000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>130300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>135800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>126600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>128300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>133500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>127700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>125200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>119300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>106900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>105400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>97100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>89900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>73100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E22" s="3">
         <v>23400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>24800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>16800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E23" s="3">
         <v>134400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>117600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>109500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>130700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>87400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>74400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>96800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>94600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>77100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>76500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>68100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>63100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>48400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1700</v>
       </c>
       <c r="G24" s="3">
         <v>1700</v>
       </c>
       <c r="H24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E26" s="3">
         <v>132300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>115800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>107800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>129000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>32100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>87400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>74400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>95300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>96800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>94600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>89000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>77100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>14500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>48400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,41 +2122,44 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>14500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>48400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>14500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>48400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>109300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>47200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E43" s="3">
         <v>93200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>92900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>107100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>60100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>67800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>62500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>59800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>58100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,168 +2733,177 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E46" s="3">
         <v>101400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>87900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>113200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>95900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>79200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>67200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>180400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>105200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>107000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>111400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>108500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>101600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>62200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>109300</v>
+        <v>104500</v>
       </c>
       <c r="E47" s="3">
         <v>109300</v>
       </c>
       <c r="F47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="G47" s="3">
         <v>108700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>111600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>109000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>90300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>74300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>67300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>41300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2814,67 +2919,73 @@
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3094500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3111300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3103300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3068600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3028700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3010900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2823900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2757400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2726700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2735300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2630500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2578300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2527100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2520500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2506400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2507400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2518800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E52" s="3">
         <v>52500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3388600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3374500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3371700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3323600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3314500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3277700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3005300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2925900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2870600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2991200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2805400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2742000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2661300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2635100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2618300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2612700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2591100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,87 +3403,91 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E57" s="3">
         <v>51000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>56000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>78500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>65300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>47900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>28700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>42500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>19200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>278500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -3361,17 +3495,17 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>11300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3391,159 +3525,168 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E59" s="3">
         <v>64000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>87300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>61100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>46200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>92400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E60" s="3">
         <v>125000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>132300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>157800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>145800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>176100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>138100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>111800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>70400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>74400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>48900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>313600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1886200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1895500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1822700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1812100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1753500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>969800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3568,67 +3711,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E62" s="3">
         <v>23400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>5500</v>
       </c>
       <c r="O62" s="3">
         <v>5500</v>
       </c>
       <c r="P62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3204600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3249500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3245500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3195400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3183800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3146200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2498900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2416200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2356200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2473200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2286100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2222500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2141300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2114300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2095100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2089500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>318100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4025,28 +4193,28 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>15500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>15300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>15100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>14900</v>
       </c>
       <c r="M70" s="3">
         <v>14900</v>
       </c>
       <c r="N70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="O70" s="3">
         <v>14700</v>
       </c>
       <c r="P70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="Q70" s="3">
         <v>14800</v>
@@ -4055,7 +4223,7 @@
         <v>14800</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="E76" s="3">
         <v>125000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>128200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>130700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>490900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>494400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>499300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>503100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>504400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>504800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>505300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>506000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>508400</v>
       </c>
       <c r="R76" s="3">
         <v>508400</v>
       </c>
       <c r="S76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="T76" s="3">
         <v>2273000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>14500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>48400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E83" s="3">
         <v>40000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>39500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>38900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29300</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>28500</v>
       </c>
       <c r="R83" s="3">
         <v>28500</v>
       </c>
       <c r="S83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="T83" s="3">
         <v>26800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E89" s="3">
         <v>174500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>149600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>177400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>78500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>117800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>148300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>126100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>115400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>120900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>101200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>102200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>75600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-98900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-78100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-122000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-71700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-47400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-65300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-98900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-68900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-219100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-79000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-71900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-127500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-77000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-47400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-65300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-82900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>18800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-20800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>55800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-19300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-17900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>80200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-82400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-139800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-119800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-50200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-109100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-62300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-68800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-45500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-83400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-74700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-30300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-36800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>42700</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>294800</v>
+      </c>
+      <c r="E8" s="3">
         <v>288800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>266500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>264800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>269800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>290800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>305900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>214900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>190300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>221500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>169500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>164700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>157000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>150500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>146700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>130300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>120300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,70 +1170,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E15" s="3">
         <v>40200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>39500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>38900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>38500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>32600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>30600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>29300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>28500</v>
       </c>
       <c r="S15" s="3">
         <v>28500</v>
       </c>
       <c r="T15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="U15" s="3">
         <v>26800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E17" s="3">
         <v>106300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>111800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>138000</v>
       </c>
       <c r="H17" s="3">
         <v>138000</v>
       </c>
       <c r="I17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="J17" s="3">
         <v>217000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>124700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>72400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>69700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>67700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>71900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E18" s="3">
         <v>182500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>154700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>137200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>131800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>152800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>99300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>91200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>89300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>76900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>63100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>48400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,44 +1414,45 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1443,235 +1477,247 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>228900</v>
+      </c>
+      <c r="E21" s="3">
         <v>225400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>197800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>180300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>171700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>194000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>130300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>135800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>126600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>128300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>127700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>125200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>119300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>106900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>105400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>97100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>89900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>73100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E22" s="3">
         <v>23100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>16800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E23" s="3">
         <v>162100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>134400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>117600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>109500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>130700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>87400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>74400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>96800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>94600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>76500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>63100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>48400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1700</v>
       </c>
       <c r="H24" s="3">
         <v>1700</v>
       </c>
       <c r="I24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E26" s="3">
         <v>159600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>132300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>115800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>107800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>129000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>32100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>87400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>95300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>96800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>94600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>89000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>77100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>18300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>48400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,44 +2192,47 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2257,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>18300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>48400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>18300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>48400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>109300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>47200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E43" s="3">
         <v>108100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>92900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>84900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>107100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>87900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>68300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>60100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>65500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>59800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>59700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>58100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,177 +2832,186 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E46" s="3">
         <v>113800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>101400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>103700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>87900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>113200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>95900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>79200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>76100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>67200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>180400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>105200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>107000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>111400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>108500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>101600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>62200</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E47" s="3">
         <v>104500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>109300</v>
       </c>
       <c r="F47" s="3">
         <v>109300</v>
       </c>
       <c r="G47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="H47" s="3">
         <v>108700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>111600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>109000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>74300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>68600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>67300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>41300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2922,70 +3027,76 @@
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3100700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3094500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3111300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3103300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3068600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3028700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3010900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2823900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2757400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2726700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2735300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2630500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2578300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2527100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2520500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2506400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2507400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2518800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E52" s="3">
         <v>75800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>58400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3386400</v>
+      </c>
+      <c r="E54" s="3">
         <v>3388600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3374500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3371700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3323600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3314500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3277700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3005300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2925900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2870600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2991200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2805400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2742000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2661300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2635100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2618300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2612700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2591100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,93 +3534,97 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E57" s="3">
         <v>38900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>78500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>65300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>47900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>28700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>42500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>19200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>22700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>278500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -3498,17 +3632,17 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>11300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3528,168 +3662,177 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E59" s="3">
         <v>42900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>87300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>97600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>92400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>75700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E60" s="3">
         <v>94300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>125000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>132300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>157800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>176100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>111800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>70400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>74400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>313600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1817300</v>
+      </c>
+      <c r="E61" s="3">
         <v>1886200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1900100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1895500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1822700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1812100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1753500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>969800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3714,70 +3857,76 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E62" s="3">
         <v>23000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5500</v>
       </c>
       <c r="P62" s="3">
         <v>5500</v>
       </c>
       <c r="Q62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3202400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3204600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3249500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3245500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3195400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3183800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3146200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2498900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2416200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2356200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2473200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2286100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2222500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2141300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2114300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2095100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2089500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>318100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4196,28 +4364,28 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>15500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>15300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>15100</v>
-      </c>
-      <c r="M70" s="3">
-        <v>14900</v>
       </c>
       <c r="N70" s="3">
         <v>14900</v>
       </c>
       <c r="O70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="P70" s="3">
         <v>14700</v>
       </c>
       <c r="Q70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="R70" s="3">
         <v>14800</v>
@@ -4226,7 +4394,7 @@
         <v>14800</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4467,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4727,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4553,61 +4739,64 @@
         <v>184000</v>
       </c>
       <c r="E76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="F76" s="3">
         <v>125000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>126200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>128200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>130700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>131500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>490900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>494400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>499300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>503100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>504400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>504800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>505300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>506000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>508400</v>
       </c>
       <c r="S76" s="3">
         <v>508400</v>
       </c>
       <c r="T76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="U76" s="3">
         <v>2273000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>18300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>48400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E83" s="3">
         <v>40200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>39500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>36000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29300</v>
-      </c>
-      <c r="R83" s="3">
-        <v>28500</v>
       </c>
       <c r="S83" s="3">
         <v>28500</v>
       </c>
       <c r="T83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="U83" s="3">
         <v>26800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E89" s="3">
         <v>165400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>174500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>149600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>177400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>78500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>117800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>148300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>126100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>115400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>120900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>101200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>102200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>75600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-98900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-78100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-122000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-67000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-47400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-65300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-98900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-68900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-78100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-219100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-79000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-71900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-93000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-77000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-38300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-47400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-65300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-82900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>18800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-20800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>55800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-19300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>80200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-82400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-196300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-139800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-119800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-50200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-68800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-44300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-45500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-83400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-74700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-89200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>42700</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,173 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>303900</v>
+      </c>
+      <c r="E8" s="3">
         <v>294800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>288800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>266500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>264800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>269800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>290800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>305900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>174200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>221500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>169500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>164700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>157000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>150500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>146700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>130300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>120300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,8 +895,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,73 +1193,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E15" s="3">
         <v>40400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>39500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>38900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>36000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>32600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>36100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>30600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>29300</v>
-      </c>
-      <c r="S15" s="3">
-        <v>28500</v>
       </c>
       <c r="T15" s="3">
         <v>28500</v>
       </c>
       <c r="U15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="V15" s="3">
         <v>26800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E17" s="3">
         <v>109200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>106300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>111800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>138000</v>
       </c>
       <c r="I17" s="3">
         <v>138000</v>
       </c>
       <c r="J17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K17" s="3">
         <v>217000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>72400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>69700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>67700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>71900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>159200</v>
+      </c>
+      <c r="E18" s="3">
         <v>185600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>182500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>154700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>137200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>131800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>152800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>88900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>91200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>95700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>97100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>89300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>63100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>48400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,47 +1448,48 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1480,247 +1514,259 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E21" s="3">
         <v>228900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>225400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>197800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>180300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>171700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>194000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>130300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>135800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>126600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>128300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>127700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>125200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>119300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>106900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>105400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>97100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>89900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>73100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E22" s="3">
         <v>22900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>24800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E23" s="3">
         <v>165600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>162100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>134400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>117600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>109500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>130700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>74400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>96800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>94600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>76500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>68100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>63100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>48400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1700</v>
       </c>
       <c r="I24" s="3">
         <v>1700</v>
       </c>
       <c r="J24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1740,8 +1786,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E26" s="3">
         <v>162000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>159600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>132300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>115800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>107800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>129000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>95300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>96800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>89000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>76500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>48400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>11000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>18300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>11200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>48400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,47 +2262,50 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2260,73 +2330,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>18300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>11200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>48400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>18300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>11200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>48400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2661,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>109300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>47200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2795,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E43" s="3">
         <v>105200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>92900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>107100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>87900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>60100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>65500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>59800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>59700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>58100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>60300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,186 +2931,195 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E46" s="3">
         <v>110400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>113800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>101400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>103700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>87900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>113200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>95900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>79200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>76100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>67200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>180400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>105200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>107000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>111400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>108500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>101600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>62200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E47" s="3">
         <v>103400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>104500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>109300</v>
       </c>
       <c r="G47" s="3">
         <v>109300</v>
       </c>
       <c r="H47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="I47" s="3">
         <v>108700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>111600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>109000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>74300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>68600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>67300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>41300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3030,73 +3135,79 @@
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3118100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3094500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3111300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3103300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3068600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3028700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3010900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2823900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2757400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2726700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2735300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2630500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2578300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2527100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2520500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2506400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2507400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2518800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>82900</v>
+      </c>
+      <c r="E52" s="3">
         <v>71900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>58400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3455800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3386400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3388600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3374500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3371700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3323600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3314500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3277700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3005300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2925900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2870600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2991200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2805400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2742000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2661300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2635100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2618300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2612700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2591100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,99 +3665,103 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E57" s="3">
         <v>43800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>58300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>78500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>28700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>42500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>19200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>22700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>278500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E58" s="3">
         <v>15000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
@@ -3635,17 +3769,17 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>11300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3665,177 +3799,186 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E59" s="3">
         <v>68200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>42900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>87300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>97600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>36200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>92400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>75700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E60" s="3">
         <v>127000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>94300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>125000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>132300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>157800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>145800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>176100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>64900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>70400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>74400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>313600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2595100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1817300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1886200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1900100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1895500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1822700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1812100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1753500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>969800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3860,73 +4003,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E62" s="3">
         <v>23500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>5500</v>
       </c>
       <c r="Q62" s="3">
         <v>5500</v>
       </c>
       <c r="R62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="S62" s="3">
         <v>5400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3320100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3202400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3204600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3249500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3245500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3195400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3183800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3146200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2498900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2416200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2356200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2473200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2286100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2222500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2141300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2114300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2095100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2089500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>318100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4367,28 +4535,28 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>15500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>15300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>15100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>14900</v>
       </c>
       <c r="O70" s="3">
         <v>14900</v>
       </c>
       <c r="P70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="Q70" s="3">
         <v>14700</v>
       </c>
       <c r="R70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="S70" s="3">
         <v>14800</v>
@@ -4397,7 +4565,7 @@
         <v>14800</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,8 +4641,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4535,8 +4709,11 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>184000</v>
+        <v>135700</v>
       </c>
       <c r="E76" s="3">
         <v>184000</v>
       </c>
       <c r="F76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="G76" s="3">
         <v>125000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>128200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>130700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>131500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>490900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>494400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>499300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>503100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>504400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>504800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>505300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>506000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>508400</v>
       </c>
       <c r="T76" s="3">
         <v>508400</v>
       </c>
       <c r="U76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="V76" s="3">
         <v>2273000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>18300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>11200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>48400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E83" s="3">
         <v>40400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>38900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29300</v>
-      </c>
-      <c r="S83" s="3">
-        <v>28500</v>
       </c>
       <c r="T83" s="3">
         <v>28500</v>
       </c>
       <c r="U83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="V83" s="3">
         <v>26800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E89" s="3">
         <v>224600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>165400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>174500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>149600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>177400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>78500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>117800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>126100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>115400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>101200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>75600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-78100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-122000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-47400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-65300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-98900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-78100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-219100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-79000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-127500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-93000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-29200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-47400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-65300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6018,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-82900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>18800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-20800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>55800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-19300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-17900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>80200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-82400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-196300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-139800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-119800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-50200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-109100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-62300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-68800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-83400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-74700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-36800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>42700</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,179 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>316300</v>
+      </c>
+      <c r="E8" s="3">
         <v>303900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>294800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>288800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>266500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>264800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>269800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>290800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>305900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>221500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>169500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>164700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>157000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>150500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>146700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>138300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>130300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>120300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,76 +1215,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E15" s="3">
         <v>41500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>40000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>39500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>38500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>36000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>35400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>32600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>36100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>30600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>29300</v>
-      </c>
-      <c r="T15" s="3">
-        <v>28500</v>
       </c>
       <c r="U15" s="3">
         <v>28500</v>
       </c>
       <c r="V15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="W15" s="3">
         <v>26800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E17" s="3">
         <v>144700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>109200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>106300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>111800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>138000</v>
       </c>
       <c r="J17" s="3">
         <v>138000</v>
       </c>
       <c r="K17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="L17" s="3">
         <v>217000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>124700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>72400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>69700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>67700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>72900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>69700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>71900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>199900</v>
+      </c>
+      <c r="E18" s="3">
         <v>159200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>185600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>182500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>154700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>131800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>152800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>91200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>95700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>97100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>89300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>63100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>48400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,50 +1481,51 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1517,259 +1550,271 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>245400</v>
+      </c>
+      <c r="E21" s="3">
         <v>203700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>228900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>225400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>197800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>180300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>171700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>194000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>130300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>135800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>128300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>133500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>127700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>125200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>119300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>106900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>105400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>97100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>89900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>73100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E22" s="3">
         <v>28000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>24800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E23" s="3">
         <v>134200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>165600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>162100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>134400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>117600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>109500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>130700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>87400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>96800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>94600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>89000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>77100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>76500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>63100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>48400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1700</v>
       </c>
       <c r="J24" s="3">
         <v>1700</v>
       </c>
       <c r="K24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1789,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E26" s="3">
         <v>131100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>162000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>159600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>132300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>115800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>107800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>129000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>95300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>96800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>89000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>77100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>11200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>48400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,50 +2331,53 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2333,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>11200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>48400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>11200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>48400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>109300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>47200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E43" s="3">
         <v>135500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>105200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>92900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>107100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>87900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>60100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>65500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>59800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>59700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>58100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>60300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2934,195 +3029,204 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E45" s="3">
         <v>13400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E46" s="3">
         <v>151500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>110400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>113800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>101400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>87900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>113200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>95900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>79200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>67200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>180400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>105200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>119700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>107000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>111400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>108500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>101600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>62200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E47" s="3">
         <v>103300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>103400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>104500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>109300</v>
       </c>
       <c r="H47" s="3">
         <v>109300</v>
       </c>
       <c r="I47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="J47" s="3">
         <v>108700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>111600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>74300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>68600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>67300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3138,76 +3242,82 @@
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3125000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3118100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3094500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3111300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3103300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3068600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3028700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3010900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2823900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2757400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2726700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2735300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2630500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2578300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2527100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2520500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2506400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2507400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2518800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E52" s="3">
         <v>82900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>71900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>58400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3485600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3455800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3386400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3388600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3374500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3371700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3323600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3314500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3277700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3005300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2925900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2870600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2991200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2805400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2742000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2661300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2635100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2618300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2612700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2591100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,105 +3795,109 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E57" s="3">
         <v>82600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>58300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>78500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>28700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>19200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>278500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>17500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
@@ -3772,17 +3905,17 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>11300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3802,186 +3935,195 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E59" s="3">
         <v>68600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>87300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>36200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>92400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>75700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>31500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E60" s="3">
         <v>168700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>127000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>94300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>125000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>132300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>157800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>145800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>176100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>64900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>138100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>70400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>74400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>48900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>313600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2543500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2595100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1817300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1886200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1900100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1895500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1822700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1812100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1753500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>969800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4006,76 +4148,82 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E62" s="3">
         <v>22900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>5500</v>
       </c>
       <c r="R62" s="3">
         <v>5500</v>
       </c>
       <c r="S62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T62" s="3">
         <v>5400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3281500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3320100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3202400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3204600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3249500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3245500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3195400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3183800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3146200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2498900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2416200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2356200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2473200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2286100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2222500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2141300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2114300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2095100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2089500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>318100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4538,28 +4705,28 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>15500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>15300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>15100</v>
-      </c>
-      <c r="O70" s="3">
-        <v>14900</v>
       </c>
       <c r="P70" s="3">
         <v>14900</v>
       </c>
       <c r="Q70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="R70" s="3">
         <v>14700</v>
       </c>
       <c r="S70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="T70" s="3">
         <v>14800</v>
@@ -4568,7 +4735,7 @@
         <v>14800</v>
       </c>
       <c r="V70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="W70" s="3">
         <v>0</v>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4712,8 +4885,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E76" s="3">
         <v>135700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>184000</v>
       </c>
       <c r="F76" s="3">
         <v>184000</v>
       </c>
       <c r="G76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="H76" s="3">
         <v>125000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>128200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>130700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>131500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>490900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>494400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>499300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>503100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>504400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>504800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>505300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>506000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>508400</v>
       </c>
       <c r="U76" s="3">
         <v>508400</v>
       </c>
       <c r="V76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="W76" s="3">
         <v>2273000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>11200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>48400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E83" s="3">
         <v>41500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>40400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>39500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>38900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>38500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>28500</v>
       </c>
       <c r="U83" s="3">
         <v>28500</v>
       </c>
       <c r="V83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="W83" s="3">
         <v>26800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>223500</v>
+      </c>
+      <c r="E89" s="3">
         <v>182000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>224600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>165400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>174500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>149600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>177400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>78500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>117800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>126100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>115400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>141500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>120900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>101200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>75600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>102100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-98900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-78100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-122000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-47400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-65300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-67300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-98900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-68900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-219100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-79000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-127500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-47400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-65300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-12700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-11300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-82900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>18800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-20800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>55800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-18600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-17900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>80200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-82400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-180700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-196300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-139800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-119800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-50200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-109100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-62300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-68800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-45500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-83400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-74700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-30300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-28200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-36800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>42700</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>312400</v>
+      </c>
+      <c r="E8" s="3">
         <v>316300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>303900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>294800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>288800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>266500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>264800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>269800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>290800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>305900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>174200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>221500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>169500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>164700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>157000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>150500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>146700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>138300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>130300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>120300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,79 +1238,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E15" s="3">
         <v>43500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>41500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>40200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>40000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>39500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>38900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>38500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>35400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>32600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>36100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>29300</v>
-      </c>
-      <c r="U15" s="3">
-        <v>28500</v>
       </c>
       <c r="V15" s="3">
         <v>28500</v>
       </c>
       <c r="W15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="X15" s="3">
         <v>26800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E17" s="3">
         <v>116400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>144700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>109200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>106300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>111800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>138000</v>
       </c>
       <c r="K17" s="3">
         <v>138000</v>
       </c>
       <c r="L17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="M17" s="3">
         <v>217000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>124700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>72400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>67700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>72900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>69800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>71900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E18" s="3">
         <v>199900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>159200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>185600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>182500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>154700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>131800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>99300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>91200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>95700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>89300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>77600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>68600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>63100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>48400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,53 +1515,54 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1553,271 +1587,283 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E21" s="3">
         <v>245400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>203700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>228900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>225400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>197800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>180300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>171700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>194000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>130300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>135800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>126600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>128300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>133500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>127700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>125200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>119300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>106900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>105400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>97100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>89900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>73100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E22" s="3">
         <v>31400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>16800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E23" s="3">
         <v>170500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>134200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>165600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>162100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>134400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>117600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>109500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>130700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>87400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>95300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>96800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>94600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>89000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>77100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>76500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>63100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>48400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1700</v>
       </c>
       <c r="K24" s="3">
         <v>1700</v>
       </c>
       <c r="L24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,79 +1957,85 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E26" s="3">
         <v>165100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>131100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>162000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>159600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>132300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>115800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>107800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>129000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>87400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>95300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>96800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>89000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>77100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>68100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>63100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,70 +2043,73 @@
         <v>16900</v>
       </c>
       <c r="E27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F27" s="3">
         <v>9900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>18300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>48400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,53 +2401,56 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2405,8 +2475,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,70 +2487,73 @@
         <v>16900</v>
       </c>
       <c r="E33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F33" s="3">
         <v>9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>18300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>48400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,146 +2635,152 @@
         <v>16900</v>
       </c>
       <c r="E35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F35" s="3">
         <v>9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>18300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>48400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>109300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>47200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E43" s="3">
         <v>120300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>135500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>105200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>108100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>92900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>107100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>87900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>60100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>67800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>65500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>62500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>59800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>59700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>58100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>60300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,204 +3128,213 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>10600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>147200</v>
+      </c>
+      <c r="E46" s="3">
         <v>133100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>151500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>110400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>113800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>101400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>103700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>87900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>95900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>79200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>180400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>105200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>107000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>111400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>108500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>101600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>62200</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E47" s="3">
         <v>102400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>103300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>103400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>104500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>109300</v>
       </c>
       <c r="I47" s="3">
         <v>109300</v>
       </c>
       <c r="J47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="K47" s="3">
         <v>108700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>74300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>68600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>67300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>41300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3245,79 +3350,85 @@
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3117900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3125000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3118100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3094500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3111300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3103300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3068600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3028700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3010900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2823900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2757400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2726700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2735300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2630500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2578300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2527100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2520500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2506400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2507400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2518800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119400</v>
+      </c>
+      <c r="E52" s="3">
         <v>125100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>82900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>58400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3482500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3485600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3455800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3386400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3388600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3374500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3371700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3323600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3314500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3277700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3005300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2925900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2870600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2991200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2805400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2742000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2661300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2635100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2618300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2612700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2591100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,111 +3926,115 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E57" s="3">
         <v>64500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>82600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>78500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>65300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>28700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>42500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>19200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>278500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E58" s="3">
         <v>20000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -3908,17 +4042,17 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>11300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3938,195 +4072,204 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E59" s="3">
         <v>86400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>68600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>87300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>97600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>92400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>75700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>31500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>35100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E60" s="3">
         <v>170900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>168700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>127000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>94300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>125000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>132300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>157800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>145800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>94100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>138100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>111800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>70400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>74400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>48900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>313600</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2538400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2543500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2595100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1817300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1886200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1900100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1895500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1822700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1812100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1753500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>969800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4151,79 +4294,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E62" s="3">
         <v>18100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>5500</v>
       </c>
       <c r="S62" s="3">
         <v>5500</v>
       </c>
       <c r="T62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="U62" s="3">
         <v>5400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4500</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3278600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3281500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3320100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3202400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3204600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3249500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3245500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3195400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3183800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3146200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2498900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2416200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2356200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2473200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2286100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2222500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2141300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2114300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2095100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2089500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>318100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4708,28 +4876,28 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>15500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>15300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>15100</v>
-      </c>
-      <c r="P70" s="3">
-        <v>14900</v>
       </c>
       <c r="Q70" s="3">
         <v>14900</v>
       </c>
       <c r="R70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="S70" s="3">
         <v>14700</v>
       </c>
       <c r="T70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="U70" s="3">
         <v>14800</v>
@@ -4738,7 +4906,7 @@
         <v>14800</v>
       </c>
       <c r="W70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="X70" s="3">
         <v>0</v>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E76" s="3">
         <v>204100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>135700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>184000</v>
       </c>
       <c r="G76" s="3">
         <v>184000</v>
       </c>
       <c r="H76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="I76" s="3">
         <v>125000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>128200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>131500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>490900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>494400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>499300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>503100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>504400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>504800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>505300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>506000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>508400</v>
       </c>
       <c r="V76" s="3">
         <v>508400</v>
       </c>
       <c r="W76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="X76" s="3">
         <v>2273000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,70 +5523,73 @@
         <v>16900</v>
       </c>
       <c r="E81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F81" s="3">
         <v>9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>18300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>48400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E83" s="3">
         <v>43500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>41500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>40400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>39500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>38900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>32600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29300</v>
-      </c>
-      <c r="U83" s="3">
-        <v>28500</v>
       </c>
       <c r="V83" s="3">
         <v>28500</v>
       </c>
       <c r="W83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="X83" s="3">
         <v>26800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>24700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E89" s="3">
         <v>223500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>182000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>224600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>165400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>174500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>149600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>177400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>78500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>117800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>148300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>126100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>115400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>141500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>110500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>120900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>101200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>102200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>75600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>102100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-67300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-98900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-122000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-67000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-47400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-65300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-67300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-98900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-68900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-219100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-79000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-127500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-77000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-21500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-47400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-65300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-12700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-11300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-82900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>18800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-20800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>55800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-19300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-18600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-17900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>80200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-82400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-180700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-196300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-139800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-119800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-50200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-68800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-44300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-45500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-59000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-83400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-74700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-30300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-28200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-36800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>42700</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,193 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E8" s="3">
         <v>312400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>316300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>303900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>294800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>288800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>266500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>264800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>269800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>290800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>305900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>214900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>174200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>221500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>169500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>164700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>157000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>150500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>146700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>138300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>130300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>120300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,82 +1261,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E15" s="3">
         <v>44400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>43500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>41500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>40400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>40200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>40000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>39500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>38900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>38500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>35400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>32600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>29300</v>
-      </c>
-      <c r="V15" s="3">
-        <v>28500</v>
       </c>
       <c r="W15" s="3">
         <v>28500</v>
       </c>
       <c r="X15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Y15" s="3">
         <v>26800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>24700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118100</v>
+      </c>
+      <c r="E17" s="3">
         <v>116900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>144700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>109200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>106300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>111800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>138000</v>
       </c>
       <c r="L17" s="3">
         <v>138000</v>
       </c>
       <c r="M17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="N17" s="3">
         <v>217000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>72400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>69700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>67700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>72900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>71900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E18" s="3">
         <v>195500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>199900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>159200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>185600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>182500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>154700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>137200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>131800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>99300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>91200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>95700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>89300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>77600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>76900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>68600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>63100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>48400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,56 +1549,57 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1590,283 +1624,295 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>241300</v>
+      </c>
+      <c r="E21" s="3">
         <v>240300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>245400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>203700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>228900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>225400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>197800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>180300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>171700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>194000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>130300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>135800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>126600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>128300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>133500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>127700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>125200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>119300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>106900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>105400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>97100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>89900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>73100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E22" s="3">
         <v>31300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>16800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E23" s="3">
         <v>164600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>170500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>134200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>165600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>162100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>134400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>117600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>109500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>130700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>95300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>96800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>94600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>77100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>76500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>68100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>63100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>48400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1700</v>
       </c>
       <c r="L24" s="3">
         <v>1700</v>
       </c>
       <c r="M24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E26" s="3">
         <v>159600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>165100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>131100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>162000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>159600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>132300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>115800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>129000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>87400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>74400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>95300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>96800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>89000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>77100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>76500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>68100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>63100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16900</v>
+        <v>22000</v>
       </c>
       <c r="E27" s="3">
         <v>16900</v>
       </c>
       <c r="F27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G27" s="3">
         <v>9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>18300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>48400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,56 +2471,59 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2548,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16900</v>
+        <v>22000</v>
       </c>
       <c r="E33" s="3">
         <v>16900</v>
       </c>
       <c r="F33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>15800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>18300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>48400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16900</v>
+        <v>22000</v>
       </c>
       <c r="E35" s="3">
         <v>16900</v>
       </c>
       <c r="F35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>15800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>18300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>48400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>109300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>47200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3073,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153600</v>
+      </c>
+      <c r="E43" s="3">
         <v>137500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>120300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>135500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>105200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>108100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>92900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>107100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>87900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>60100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>67800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>65500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>62500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>59800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>59700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>58100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>60300</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,213 +3227,222 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1900</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E46" s="3">
         <v>147200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>151500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>110400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>113800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>101400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>103700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>95900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>79200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>76100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>67200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>180400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>105200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>107000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>111400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>108500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>101600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>62200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E47" s="3">
         <v>98000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>103300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>103400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>109300</v>
       </c>
       <c r="J47" s="3">
         <v>109300</v>
       </c>
       <c r="K47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="L47" s="3">
         <v>108700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>74300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>68600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>67300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>41300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3353,82 +3458,88 @@
       <c r="Z47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3144600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3117900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3125000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3118100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3100700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3094500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3111300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3103300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3068600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3028700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3010900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2823900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2757400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2726700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2735300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2630500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2578300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2527100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2520500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2506400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2507400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2518800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E52" s="3">
         <v>119400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>125100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>82900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3598700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3482500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3485600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3455800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3386400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3388600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3374500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3371700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3323600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3314500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3277700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3005300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2925900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2870600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2991200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2805400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2742000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2661300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2635100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2618300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2612700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2591100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,117 +4057,121 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E57" s="3">
         <v>63000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>82600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>56000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>78500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>65300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>28700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>42500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>35500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>19200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>22700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>278500</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>22500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
@@ -4045,17 +4179,17 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>11300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4075,204 +4209,213 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E59" s="3">
         <v>58300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>86400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>68600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>42900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>87300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>97600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>46200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>92400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>75700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>39700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>31500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>26200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35100</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>152500</v>
+      </c>
+      <c r="E60" s="3">
         <v>143800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>170900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>168700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>127000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>94300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>125000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>132300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>157800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>145800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>176100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>126400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>94100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>138100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>111800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>70400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>74400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>48900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>313600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2937400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2538400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2543500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2595100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1817300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1886200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1895500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1822700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1812100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1753500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>969800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4297,82 +4440,88 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E62" s="3">
         <v>18500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>23500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>5500</v>
       </c>
       <c r="T62" s="3">
         <v>5500</v>
       </c>
       <c r="U62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V62" s="3">
         <v>5400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4500</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3350000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3278600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3281500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3320100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3202400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3204600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3249500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3245500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3195400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3183800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3146200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2498900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2416200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2356200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2473200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2286100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2222500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2141300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2114300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2095100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2089500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>318100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4879,28 +5047,28 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>15500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>15300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>15100</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>14900</v>
       </c>
       <c r="R70" s="3">
         <v>14900</v>
       </c>
       <c r="S70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="T70" s="3">
         <v>14700</v>
       </c>
       <c r="U70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="V70" s="3">
         <v>14800</v>
@@ -4909,7 +5077,7 @@
         <v>14800</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="Y70" s="3">
         <v>0</v>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5162,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E76" s="3">
         <v>203900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>204100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>135700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>184000</v>
       </c>
       <c r="H76" s="3">
         <v>184000</v>
       </c>
       <c r="I76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="J76" s="3">
         <v>125000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>126200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>131500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>490900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>494400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>499300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>503100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>504400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>504800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>505300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>506000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>508400</v>
       </c>
       <c r="W76" s="3">
         <v>508400</v>
       </c>
       <c r="X76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2273000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16900</v>
+        <v>22000</v>
       </c>
       <c r="E81" s="3">
         <v>16900</v>
       </c>
       <c r="F81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>15800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>18300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>48400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E83" s="3">
         <v>44400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>43500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>40400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>39500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>37500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>32600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29300</v>
-      </c>
-      <c r="V83" s="3">
-        <v>28500</v>
       </c>
       <c r="W83" s="3">
         <v>28500</v>
       </c>
       <c r="X83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Y83" s="3">
         <v>26800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>24700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E89" s="3">
         <v>190600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>223500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>182000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>224600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>174500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>149600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>140200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>78500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>117800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>148300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>126100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>126200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>115400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>141500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>110500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>120900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>101200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>102200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>75600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>102100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-55100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-98900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-78100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-122000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-55900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-67000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-47400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-65300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-67300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-98900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-219100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-79000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-127500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-93000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-77000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-61200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-38300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-21500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-47400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-65300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6719,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-12700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-11300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-82900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>18800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>55800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-19300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-17900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>80200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-82400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-135000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-180700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-115900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-196300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-139800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-119800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-50200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-109100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-68800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-44300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-45500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-59000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-83400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-74700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-30300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-28200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-36800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>42700</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,200 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>334800</v>
+      </c>
+      <c r="E8" s="3">
         <v>313400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>312400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>316300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>303900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>294800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>288800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>266500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>264800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>269800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>290800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>305900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>214900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>190300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>174200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>221500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>169500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>164700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>157000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>150500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>146700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>138300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>130300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>120300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +934,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,85 +1284,91 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E15" s="3">
         <v>45000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>44400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>43500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>40400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>40200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>38900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>38500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>36000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>35400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>32600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>36100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>30000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>29300</v>
-      </c>
-      <c r="W15" s="3">
-        <v>28500</v>
       </c>
       <c r="X15" s="3">
         <v>28500</v>
       </c>
       <c r="Y15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Z15" s="3">
         <v>26800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>24700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E17" s="3">
         <v>118100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>116400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>109200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>106300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>111800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>138000</v>
       </c>
       <c r="M17" s="3">
         <v>138000</v>
       </c>
       <c r="N17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="O17" s="3">
         <v>217000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>99100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>72400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>69700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>67700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>72900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>69700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>71900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E18" s="3">
         <v>195300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>195500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>199900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>159200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>185600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>182500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>154700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>137200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>131800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>91200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>95700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>96800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>97100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>89300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>76900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>68600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>63100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>48400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,59 +1583,60 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1627,295 +1661,307 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E21" s="3">
         <v>241300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>240300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>245400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>203700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>228900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>225400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>197800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>180300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>171700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>194000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>130300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>135800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>126600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>128300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>133500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>127700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>125200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>106900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>105400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>97100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>89900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>73100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E22" s="3">
         <v>37400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>28000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>22900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>16800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>52300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E23" s="3">
         <v>158900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>164600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>170500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>134200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>165600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>162100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>134400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>117600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>109500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>130700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>87400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>74400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>95300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>45100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>96800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>94600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>77100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>76500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>68100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>63100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>48400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E24" s="3">
         <v>7100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1700</v>
       </c>
       <c r="M24" s="3">
         <v>1700</v>
       </c>
       <c r="N24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E26" s="3">
         <v>151800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>159600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>165100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>131100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>162000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>159600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>132300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>115800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>129000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>87400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>95300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>45100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>96800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>89000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>77100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>76500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>68100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>63100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E27" s="3">
         <v>22000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>16900</v>
       </c>
       <c r="F27" s="3">
         <v>16900</v>
       </c>
       <c r="G27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>48400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,59 +2541,62 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2551,85 +2621,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E33" s="3">
         <v>22000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>16900</v>
       </c>
       <c r="F33" s="3">
         <v>16900</v>
       </c>
       <c r="G33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>48400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E35" s="3">
         <v>22000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>16900</v>
       </c>
       <c r="F35" s="3">
         <v>16900</v>
       </c>
       <c r="G35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>48400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>109300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>56500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>47200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,85 +3166,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>130700</v>
+      </c>
+      <c r="E43" s="3">
         <v>153600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>137500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>120300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>135500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>105200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>108100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>107100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>87900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>68300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>60100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>67800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>65500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>62500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>59800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>59700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>58100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>60300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,222 +3326,231 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1900</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E46" s="3">
         <v>158400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>147200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>151500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>110400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>113800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>101400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>87900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>95900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>79200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>76100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>67200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>180400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>105200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>119700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>107000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>111400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>108500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>101600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>62200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E47" s="3">
         <v>97600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>98000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>103300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>103400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>104500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>109300</v>
       </c>
       <c r="K47" s="3">
         <v>109300</v>
       </c>
       <c r="L47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="M47" s="3">
         <v>108700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>109000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>74300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>68600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>67300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>41300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>24300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3461,85 +3566,91 @@
       <c r="AA47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3159600</v>
+      </c>
+      <c r="E48" s="3">
         <v>3144600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3117900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3125000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3118100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3094500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3111300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3103300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3068600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3028700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3010900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2823900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2757400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2726700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2735300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2630500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2578300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2527100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2520500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2506400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2507400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2518800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E52" s="3">
         <v>198100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>119400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>125100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>82900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3601500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3598700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3482500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3485600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3455800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3386400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3388600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3374500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3371700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3323600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3314500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3277700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3005300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2925900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2870600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2991200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2805400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2742000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2661300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2635100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2618300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2612700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2591100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E57" s="3">
         <v>60500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>82600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>59900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>56000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>78500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>65300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>47900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>42500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>19200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>22700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>278500</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,37 +4278,37 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>22500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
@@ -4182,17 +4316,17 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>11300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4212,213 +4346,222 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E59" s="3">
         <v>92000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>86400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>68600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>42900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>94500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>87300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>97600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>92400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>75700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>39700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>31500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>26200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E60" s="3">
         <v>152500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>143800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>170900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>168700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>127000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>94300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>125000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>132300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>157800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>145800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>176100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>126400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>94100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>64900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>138100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>111800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>101700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>70400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>74400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>313600</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2909000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2937400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2538400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2543500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2595100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1817300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1886200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1895500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1822700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1812100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1753500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>969800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4443,85 +4586,91 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E62" s="3">
         <v>21300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>23500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6000</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5500</v>
       </c>
       <c r="U62" s="3">
         <v>5500</v>
       </c>
       <c r="V62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W62" s="3">
         <v>5400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4500</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3353700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3350000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3278600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3281500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3320100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3202400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3204600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3249500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3245500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3195400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3183800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3146200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2498900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2416200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2356200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2473200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2286100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2222500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2141300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2114300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2095100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2089500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>318100</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5050,28 +5218,28 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>15500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>15300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>15100</v>
-      </c>
-      <c r="R70" s="3">
-        <v>14900</v>
       </c>
       <c r="S70" s="3">
         <v>14900</v>
       </c>
       <c r="T70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="U70" s="3">
         <v>14700</v>
       </c>
       <c r="V70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="W70" s="3">
         <v>14800</v>
@@ -5080,7 +5248,7 @@
         <v>14800</v>
       </c>
       <c r="Y70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="Z70" s="3">
         <v>0</v>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,8 +5336,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5242,8 +5416,11 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E76" s="3">
         <v>248700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>203900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>204100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>135700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>184000</v>
       </c>
       <c r="I76" s="3">
         <v>184000</v>
       </c>
       <c r="J76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="K76" s="3">
         <v>125000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>128200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>131500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>490900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>494400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>499300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>503100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>504400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>504800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>505300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>506000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>508400</v>
       </c>
       <c r="X76" s="3">
         <v>508400</v>
       </c>
       <c r="Y76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2273000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E81" s="3">
         <v>22000</v>
-      </c>
-      <c r="E81" s="3">
-        <v>16900</v>
       </c>
       <c r="F81" s="3">
         <v>16900</v>
       </c>
       <c r="G81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>48400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E83" s="3">
         <v>45000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>44400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>43500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>40400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>37500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>28500</v>
       </c>
       <c r="X83" s="3">
         <v>28500</v>
       </c>
       <c r="Y83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Z83" s="3">
         <v>26800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>24700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E89" s="3">
         <v>213200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>190600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>223500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>182000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>224600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>174500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>149600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>140200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>78500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>117800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>148300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>126100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>126200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>115400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>141500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>110500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>120900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>101200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>102200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>75600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>102100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-55900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-43200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-98900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-78100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-122000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-71700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-36900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-47400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-65300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-55900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-67300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-55100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-219100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-79000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-127500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-93000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-77000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-61200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-38300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-47400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,85 +6953,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-24200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-12700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-11300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-7900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-82900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>18800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-20800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>55800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-19300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-17900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>80200</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-82400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-168600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-157900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-135000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-180700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-115900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-196300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-139800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-119800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-109100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-28600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-68800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-44300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-45500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-59000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-83400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-74700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-30300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-36800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-89200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>42700</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,206 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>314600</v>
+      </c>
+      <c r="E8" s="3">
         <v>334800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>313400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>312400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>316300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>303900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>294800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>288800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>266500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>264800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>269800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>290800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>305900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>214900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>190300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>174200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>221500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>169500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>164700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>157000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>150500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>146700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>138300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>130300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>120300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -937,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,88 +1306,94 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E15" s="3">
         <v>45500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>44400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>43500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>40400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>38900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>38500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>36000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>35400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>32600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>36100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>30200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>30000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>29300</v>
-      </c>
-      <c r="X15" s="3">
-        <v>28500</v>
       </c>
       <c r="Y15" s="3">
         <v>28500</v>
       </c>
       <c r="Z15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AA15" s="3">
         <v>26800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>24700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E17" s="3">
         <v>130800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>118100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>116900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>116400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>144700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>109200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>111800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>138000</v>
       </c>
       <c r="N17" s="3">
         <v>138000</v>
       </c>
       <c r="O17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="P17" s="3">
         <v>217000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>115600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>99100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>72400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>69700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>67700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>72900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>69800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>69700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>67200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>71900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>196400</v>
+      </c>
+      <c r="E18" s="3">
         <v>204000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>195300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>195500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>199900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>159200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>185600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>182500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>154700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>131800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>99300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>91200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>95700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>97100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>89300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>77600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>68600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>63100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>48400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,62 +1616,63 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1664,307 +1697,319 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>243900</v>
+      </c>
+      <c r="E21" s="3">
         <v>252300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>241300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>240300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>245400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>203700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>228900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>225400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>197800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>180300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>171700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>194000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>130300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>135800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>126600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>128300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>133500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>127700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>125200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>119300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>106900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>105400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>97100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>89900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>73100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E22" s="3">
         <v>39900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>37400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>28000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>22900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>16800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>52300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E23" s="3">
         <v>166900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>158900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>164600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>170500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>134200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>165600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>162100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>117600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>109500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>130700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>87400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>95300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>96800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>94600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>77100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>76500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>68100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>63100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>48400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1700</v>
       </c>
       <c r="N24" s="3">
         <v>1700</v>
       </c>
       <c r="O24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1984,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E26" s="3">
         <v>159400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>151800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>159600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>165100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>131100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>162000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>159600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>132300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>115800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>129000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>32100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>95300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>45100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>96800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>94600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>89000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>77100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>76500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>68100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>63100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>48400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E27" s="3">
         <v>23200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>16900</v>
       </c>
       <c r="G27" s="3">
         <v>16900</v>
       </c>
       <c r="H27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I27" s="3">
         <v>9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>14500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>48400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,62 +2610,65 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2624,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>23200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>16900</v>
       </c>
       <c r="G33" s="3">
         <v>16900</v>
       </c>
       <c r="H33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I33" s="3">
         <v>9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>14500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>48400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>23200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>16900</v>
       </c>
       <c r="G35" s="3">
         <v>16900</v>
       </c>
       <c r="H35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I35" s="3">
         <v>9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>14500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>48400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>109300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>56500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>47200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>48000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E43" s="3">
         <v>130700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>153600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>137500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>135500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>108100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>93200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>92900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>107100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>87900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>68300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>60100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>60500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>67800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>65500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>62500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>67700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>59800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>59700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>58100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>60300</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3329,231 +3424,240 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1900</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>132300</v>
+      </c>
+      <c r="E46" s="3">
         <v>146800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>147200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>151500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>110400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>113800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>101400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>113200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>95900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>79200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>76100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>67200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>180400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>105200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>119700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>107000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>111400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>108500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>101600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>62200</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E47" s="3">
         <v>99000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>97600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>98000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>103300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>103400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>104500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>109300</v>
       </c>
       <c r="L47" s="3">
         <v>109300</v>
       </c>
       <c r="M47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="N47" s="3">
         <v>108700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>109000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>90300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>74300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>68600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>67300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>41300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>24300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3569,88 +3673,94 @@
       <c r="AB47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3172800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3159600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3144600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3117900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3125000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3118100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3094500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3111300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3103300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3068600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3028700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3010900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2823900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2757400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2726700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2735300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2630500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2578300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2527100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2520500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2506400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2507400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2518800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E52" s="3">
         <v>196100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>198100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>82900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>58400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3588200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3601500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3598700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3482500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3485600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3455800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3386400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3388600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3374500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3371700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3323600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3314500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3277700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3005300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2925900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2870600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2991200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2805400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2742000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2661300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2635100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2618300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2612700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2591100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,129 +4318,133 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E57" s="3">
         <v>64200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>82600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>59900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>56000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>78500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>65300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>47900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>42500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>19200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>22700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>278500</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>22500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -4319,17 +4452,17 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>11300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4349,222 +4482,231 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E59" s="3">
         <v>93300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>92000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>68600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>68200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>94500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>87300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>97600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>61100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>92400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>75700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>39700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>31500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>26200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>35100</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>159500</v>
+      </c>
+      <c r="E60" s="3">
         <v>157500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>152500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>170900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>168700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>127000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>94300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>125000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>132300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>157800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>145800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>176100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>126400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>94100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>64900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>138100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>111800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>101700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>70400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>74400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>48900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>313600</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2883100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2909000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2937400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2538400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2543500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2595100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1817300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1886200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1900100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1895500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1822700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1812100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1753500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>969800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4589,88 +4731,94 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E62" s="3">
         <v>21100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6000</v>
-      </c>
-      <c r="U62" s="3">
-        <v>5500</v>
       </c>
       <c r="V62" s="3">
         <v>5500</v>
       </c>
       <c r="W62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X62" s="3">
         <v>5400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4500</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3343100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3353700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3350000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3278600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3281500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3320100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3202400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3204600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3249500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3245500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3195400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3183800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3146200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2498900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2416200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2356200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2473200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2286100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2222500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2141300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2114300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2095100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2089500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>318100</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5221,28 +5388,28 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>15500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>15300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>15100</v>
-      </c>
-      <c r="S70" s="3">
-        <v>14900</v>
       </c>
       <c r="T70" s="3">
         <v>14900</v>
       </c>
       <c r="U70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="V70" s="3">
         <v>14700</v>
       </c>
       <c r="W70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="X70" s="3">
         <v>14800</v>
@@ -5251,7 +5418,7 @@
         <v>14800</v>
       </c>
       <c r="Z70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="AA70" s="3">
         <v>0</v>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,8 +5509,11 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5419,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E76" s="3">
         <v>247800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>248700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>203900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>204100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>135700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>184000</v>
       </c>
       <c r="J76" s="3">
         <v>184000</v>
       </c>
       <c r="K76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="L76" s="3">
         <v>125000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>128200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>130700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>131500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>490900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>494400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>499300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>503100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>504400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>504800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>505300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>506000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>508400</v>
       </c>
       <c r="Y76" s="3">
         <v>508400</v>
       </c>
       <c r="Z76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="AA76" s="3">
         <v>2273000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>23200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>16900</v>
       </c>
       <c r="G81" s="3">
         <v>16900</v>
       </c>
       <c r="H81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I81" s="3">
         <v>9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>14500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>48400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E83" s="3">
         <v>45500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>40400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>38900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>37500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29300</v>
-      </c>
-      <c r="X83" s="3">
-        <v>28500</v>
       </c>
       <c r="Y83" s="3">
         <v>28500</v>
       </c>
       <c r="Z83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AA83" s="3">
         <v>26800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>24700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E89" s="3">
         <v>234700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>213200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>190600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>182000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>224600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>174500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>149600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>140200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>78500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>117800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>148300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>126100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>126200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>115400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>141500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>110500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>120900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>101200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>102200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>75600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>102100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-67300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-26000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-98900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-122000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-71700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-36900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-47400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-65300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-65900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-55900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-219100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-127500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-93000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-77000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-61200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-47400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,88 +7186,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-24500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-24200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-17200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-12700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-11300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-7900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-82900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>18800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>55800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-19300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-18600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-17900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>80200</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-82400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-168600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-157900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-135000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-180700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-196300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-139800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-109100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-62300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-68800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-44300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-45500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-59000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-83400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-74700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-30300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-36800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-89200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-16800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>42700</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E8" s="3">
         <v>314600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>334800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>313400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>312400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>316300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>303900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>294800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>288800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>269800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>290800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>305900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>214900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>190300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>221500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>169500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>164700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>157000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>150500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>146700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>138300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>130300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>120300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,91 +1329,97 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E15" s="3">
         <v>46400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>45500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>45000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>44400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>43500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>38900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>38500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>35400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>32600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>36100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>30600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>30200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>30000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>29300</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>28500</v>
       </c>
       <c r="Z15" s="3">
         <v>28500</v>
       </c>
       <c r="AA15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AB15" s="3">
         <v>26800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>24700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E17" s="3">
         <v>118200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>130800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>116900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>116400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>144700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>109200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>111800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>138000</v>
       </c>
       <c r="O17" s="3">
         <v>138000</v>
       </c>
       <c r="P17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>217000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>115600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>99100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>78500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>124700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>72400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>67700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>72900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>69800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>69700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>67200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>71900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>188700</v>
+      </c>
+      <c r="E18" s="3">
         <v>196400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>204000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>195300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>195500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>199900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>159200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>185600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>182500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>154700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>137200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>131800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>152800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>99300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>91200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>95700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>97100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>95000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>89300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>77600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>68600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>63100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>48400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,65 +1650,66 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1700,319 +1734,331 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E21" s="3">
         <v>243900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>252300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>241300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>240300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>245400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>203700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>228900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>225400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>197800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>180300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>171700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>194000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>130300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>135800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>126600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>128300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>133500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>127700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>125200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>119300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>106900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>105400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>97100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>89900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>73100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E22" s="3">
         <v>40700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>39900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>28000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>22900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>16800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>52300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E23" s="3">
         <v>156800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>166900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>158900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>164600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>170500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>134200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>165600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>162100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>134400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>117600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>109500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>130700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>96800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>94600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>89000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>77100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>76500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>68100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>63100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>48400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1700</v>
       </c>
       <c r="O24" s="3">
         <v>1700</v>
       </c>
       <c r="P24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>142200</v>
+      </c>
+      <c r="E26" s="3">
         <v>149800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>159400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>151800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>159600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>165100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>131100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>162000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>159600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>132300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>115800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>129000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>95300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>96800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>94600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>89000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>77100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>76500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>68100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>63100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>48400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>16900</v>
       </c>
       <c r="H27" s="3">
         <v>16900</v>
       </c>
       <c r="I27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J27" s="3">
         <v>9900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>16700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>18300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>17400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>14500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>48400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,65 +2680,68 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2696,91 +2766,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>16900</v>
       </c>
       <c r="H33" s="3">
         <v>16900</v>
       </c>
       <c r="I33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J33" s="3">
         <v>9900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>16700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>18300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>17400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>14500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>48400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>16900</v>
       </c>
       <c r="H35" s="3">
         <v>16900</v>
       </c>
       <c r="I35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J35" s="3">
         <v>9900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>16700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>18300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>17400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>14500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>48400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>109300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>56500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>47200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>48000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>43000</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,91 +3351,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E43" s="3">
         <v>123000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>130700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>153600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>137500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>135500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>108100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>93200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>92900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>107100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>87900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>60100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>67800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>65500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>62500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>67700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>59800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>59700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>58100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>60300</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,240 +3523,249 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1900</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E46" s="3">
         <v>132300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>146800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>158400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>147200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>151500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>110400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>101400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>103700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>113200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>95900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>79200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>76100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>180400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>105200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>119700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>107000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>111400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>108500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>101600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>62200</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E47" s="3">
         <v>94600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>99000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>97600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>98000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>103300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>103400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>109300</v>
       </c>
       <c r="M47" s="3">
         <v>109300</v>
       </c>
       <c r="N47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="O47" s="3">
         <v>108700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>109000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>90300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>74300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>68600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>67300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>41300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>24300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3676,91 +3781,97 @@
       <c r="AC47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3183000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3172800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3159600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3144600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3117900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3125000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3118100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3094500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3111300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3103300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3068600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3028700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3010900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2823900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2757400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2726700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2735300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2630500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2578300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2527100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2520500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2506400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2507400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2518800</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E52" s="3">
         <v>188500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>196100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>198100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>125100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>82900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>58400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>61000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>10100</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3578500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3588200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3601500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3598700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3482500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3485600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3455800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3386400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3388600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3374500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3371700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3323600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3314500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3277700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3005300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2925900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2870600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2991200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2805400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2742000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2661300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2635100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2618300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2612700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2591100</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,135 +4449,139 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E57" s="3">
         <v>62700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>82600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>43800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>59900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>58300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>56000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>78500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>65300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>34400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>36100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>42500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>19200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>22700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>278500</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>22500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
@@ -4455,17 +4589,17 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>11300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4485,231 +4619,240 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E59" s="3">
         <v>94300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>93300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>92000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>86400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>68600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>68200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>87300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>97600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>92400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>75700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>39700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>31500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>26200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>35100</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E60" s="3">
         <v>159500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>157500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>152500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>168700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>127000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>94300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>125000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>132300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>157800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>145800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>176100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>126400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>94100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>64900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>138100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>111800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>101700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>70400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>74400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>48900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>313600</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2985100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2883100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2909000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2937400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2538400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2543500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2595100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1817300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1886200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1900100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1895500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1822700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1812100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1753500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>969800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4734,91 +4877,97 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E62" s="3">
         <v>16600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>5500</v>
       </c>
       <c r="W62" s="3">
         <v>5500</v>
       </c>
       <c r="X62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Y62" s="3">
         <v>5400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4500</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3350600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3343100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3353700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3350000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3278600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3281500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3320100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3202400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3204600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3249500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3245500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3195400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3183800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3146200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2498900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2416200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2356200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2473200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2286100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2222500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2141300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2114300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2095100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2089500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>318100</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5391,28 +5559,28 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>15500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>15300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>15100</v>
-      </c>
-      <c r="T70" s="3">
-        <v>14900</v>
       </c>
       <c r="U70" s="3">
         <v>14900</v>
       </c>
       <c r="V70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="W70" s="3">
         <v>14700</v>
       </c>
       <c r="X70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="Y70" s="3">
         <v>14800</v>
@@ -5421,7 +5589,7 @@
         <v>14800</v>
       </c>
       <c r="AA70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="AB70" s="3">
         <v>0</v>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5683,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E76" s="3">
         <v>245100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>247800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>248700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>203900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>204100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>135700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>184000</v>
       </c>
       <c r="K76" s="3">
         <v>184000</v>
       </c>
       <c r="L76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="M76" s="3">
         <v>125000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>128200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>130700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>131500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>490900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>494400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>499300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>503100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>504400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>504800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>505300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>506000</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>508400</v>
       </c>
       <c r="Z76" s="3">
         <v>508400</v>
       </c>
       <c r="AA76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="AB76" s="3">
         <v>2273000</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>16900</v>
       </c>
       <c r="H81" s="3">
         <v>16900</v>
       </c>
       <c r="I81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J81" s="3">
         <v>9900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>16700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>18300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>17400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>14500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>48400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E83" s="3">
         <v>46400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>45500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>37500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29300</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>28500</v>
       </c>
       <c r="Z83" s="3">
         <v>28500</v>
       </c>
       <c r="AA83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AB83" s="3">
         <v>26800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>24700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E89" s="3">
         <v>222600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>234700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>213200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>190600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>223500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>182000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>224600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>165400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>174500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>149600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>177400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>140200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>78500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>117800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>148300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>126100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>126200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>115400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>141500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>110500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>120900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>101200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>102200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>75600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>102100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-55900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-67300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-98900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-59500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-71700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-67000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-36900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-47400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-65300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-219100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-79000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-127500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-93000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-77000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-61200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-47400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-24800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-24500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-24200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-17500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-17200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-12700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-7900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-82900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>18800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>55800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-19300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-18600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-17900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>80200</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-82400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-160500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-168600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-157900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-135000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-180700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-139800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-119800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-50200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-109100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-62300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-8300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-62500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-68800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-44300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-45500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-59000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-83400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-74700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-30300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-28200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-36800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7694,78 +7946,81 @@
         <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-16800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-21900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>42700</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,220 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E8" s="3">
         <v>305000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>314600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>334800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>313400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>312400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>316300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>303900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>294800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>288800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>266500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>264800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>269800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>290800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>305900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>214900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>190300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>221500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>169500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>164700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>157000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>150500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>146700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>138300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>130300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>120300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,94 +1352,100 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E15" s="3">
         <v>47400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>46400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>45500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>45000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>44400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>43500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>39500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>38900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>38500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>36000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>35400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>32600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>36100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>30600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>30200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>30000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>29300</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>28500</v>
       </c>
       <c r="AA15" s="3">
         <v>28500</v>
       </c>
       <c r="AB15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AC15" s="3">
         <v>26800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>24700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E17" s="3">
         <v>116300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>118200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>130800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>118100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>116900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>116400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>144700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>111800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>138000</v>
       </c>
       <c r="P17" s="3">
         <v>138000</v>
       </c>
       <c r="Q17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="R17" s="3">
         <v>217000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>115600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>99100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>78500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>124700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>72400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>67700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>72900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>69800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>69700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>67200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>71900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E18" s="3">
         <v>188700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>196400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>204000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>195300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>195500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>199900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>159200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>185600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>182500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>154700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>137200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>131800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>152800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>99300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>91200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>95700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>96800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>97100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>95000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>89300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>77600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>76900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>68600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>63100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>48400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,68 +1684,69 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1737,331 +1771,343 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E21" s="3">
         <v>237700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>243900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>252300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>241300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>240300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>245400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>203700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>228900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>225400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>197800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>180300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>171700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>194000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>130300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>135800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>126600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>128300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>133500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>127700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>125200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>119300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>106900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>105400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>97100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>89900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>73100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E22" s="3">
         <v>41600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>39900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>28000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>16800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>52300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>500</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
       <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E23" s="3">
         <v>148700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>156800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>166900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>158900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>164600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>170500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>134200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>165600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>162100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>134400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>117600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>130700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>87400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>95300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>45100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>96800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>94600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>89000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>77100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>76500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>68100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>63100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>48400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1700</v>
       </c>
       <c r="P24" s="3">
         <v>1700</v>
       </c>
       <c r="Q24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E26" s="3">
         <v>142200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>149800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>159400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>151800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>159600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>165100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>162000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>159600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>132300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>115800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>129000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>74400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>95300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>45100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>96800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>94600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>89000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>77100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>76500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>68100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>63100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>48400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17900</v>
+        <v>25100</v>
       </c>
       <c r="E27" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>16900</v>
       </c>
       <c r="I27" s="3">
         <v>16900</v>
       </c>
       <c r="J27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K27" s="3">
         <v>9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>16700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>18300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>16700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>14500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>11200</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>48400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,68 +2750,71 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2769,94 +2839,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17900</v>
+        <v>25100</v>
       </c>
       <c r="E33" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>16900</v>
       </c>
       <c r="I33" s="3">
         <v>16900</v>
       </c>
       <c r="J33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>16700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>18300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>16700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>14500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>14700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>11200</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>48400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17900</v>
+        <v>25100</v>
       </c>
       <c r="E35" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>16900</v>
       </c>
       <c r="I35" s="3">
         <v>16900</v>
       </c>
       <c r="J35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>16700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>18300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>16700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>14500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>14700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>11200</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>48400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>109300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>34600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>56500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>47200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>48000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>43000</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,94 +3444,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>110300</v>
+      </c>
+      <c r="E43" s="3">
         <v>109200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>123000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>130700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>153600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>137500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>120300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>135500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>105200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>108100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>93200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>107100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>87900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>68300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>60100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>67800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>65500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>62500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>67700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>59800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>59700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>58100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>60300</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,249 +3622,258 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1900</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E46" s="3">
         <v>116600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>132300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>146800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>158400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>147200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>151500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>110400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>101400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>103700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>87900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>113200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>95900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>79200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>76100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>67200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>180400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>105200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>119700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>107000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>111400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>108500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>101600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>62200</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E47" s="3">
         <v>93400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>94600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>99000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>97600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>98000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>103300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>103400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>109300</v>
       </c>
       <c r="N47" s="3">
         <v>109300</v>
       </c>
       <c r="O47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="P47" s="3">
         <v>108700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>109000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>90300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>74300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>68600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>67300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>41300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>24300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3784,94 +3889,100 @@
       <c r="AD47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3188300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3183000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3172800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3159600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3144600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3117900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3125000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3118100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3094500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3111300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3103300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3068600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3028700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3010900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2823900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2757400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2726700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2735300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2630500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2578300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2527100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2520500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2506400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2507400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2518800</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E52" s="3">
         <v>185500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>188500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>196100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>198100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>119400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>125100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>82900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>55400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>58400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>61000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3659700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3578500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3588200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3601500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3598700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3482500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3485600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3455800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3386400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3388600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3374500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3371700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3323600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3314500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3277700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3005300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2925900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2870600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2991200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2805400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2742000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2661300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2635100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2618300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2612700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2591100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,141 +4580,145 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E57" s="3">
         <v>59000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>82600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>59900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>58300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>56000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>78500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>65300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>28700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>34400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>36100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>42500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>35500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>19200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>22700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>278500</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>22500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
@@ -4592,17 +4726,17 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>11300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4622,240 +4756,249 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E59" s="3">
         <v>74500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>92000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>86400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>68600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>42900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>94500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>87300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>97600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>92400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>75700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>59200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>34900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>39700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>31500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>26200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>35100</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E60" s="3">
         <v>138500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>159500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>157500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>152500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>143800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>168700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>127000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>94300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>125000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>132300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>157800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>145800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>176100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>126400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>94100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>64900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>138100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>111800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>101700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>70400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>74400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>48900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>313600</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3061200</v>
+      </c>
+      <c r="E61" s="3">
         <v>2985100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2883100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2909000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2937400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2538400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2543500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2595100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1817300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1886200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1895500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1822700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1812100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1753500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>969800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4880,94 +5023,100 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E62" s="3">
         <v>16400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>5500</v>
       </c>
       <c r="X62" s="3">
         <v>5500</v>
       </c>
       <c r="Y62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Z62" s="3">
         <v>5400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>4100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4500</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3357600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3350600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3343100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3353700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3350000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3278600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3281500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3320100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3202400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3204600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3249500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3245500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3195400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3183800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3146200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2498900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2416200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2356200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2473200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2286100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2222500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2141300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2114300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2095100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2089500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>318100</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5562,28 +5730,28 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>15500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>15300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>15100</v>
-      </c>
-      <c r="U70" s="3">
-        <v>14900</v>
       </c>
       <c r="V70" s="3">
         <v>14900</v>
       </c>
       <c r="W70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="X70" s="3">
         <v>14700</v>
       </c>
       <c r="Y70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="Z70" s="3">
         <v>14800</v>
@@ -5592,7 +5760,7 @@
         <v>14800</v>
       </c>
       <c r="AB70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="AC70" s="3">
         <v>0</v>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,8 +5857,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>302100</v>
+      </c>
+      <c r="E76" s="3">
         <v>227900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>245100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>247800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>248700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>203900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>204100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>135700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>184000</v>
       </c>
       <c r="L76" s="3">
         <v>184000</v>
       </c>
       <c r="M76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="N76" s="3">
         <v>125000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>126200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>128200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>130700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>131500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>490900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>494400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>499300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>503100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>504400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>504800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>505300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>506000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>508400</v>
       </c>
       <c r="AA76" s="3">
         <v>508400</v>
       </c>
       <c r="AB76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="AC76" s="3">
         <v>2273000</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17900</v>
+        <v>25100</v>
       </c>
       <c r="E81" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>16900</v>
       </c>
       <c r="I81" s="3">
         <v>16900</v>
       </c>
       <c r="J81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>16700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>18300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>16700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>14500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>14700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>11200</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>48400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>47400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>45500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>41500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>37500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>35400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>30600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>29300</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>28500</v>
       </c>
       <c r="AA83" s="3">
         <v>28500</v>
       </c>
       <c r="AB83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AC83" s="3">
         <v>26800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>24700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E89" s="3">
         <v>198700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>222600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>234700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>213200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>190600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>223500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>182000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>224600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>165400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>149600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>177400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>140200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>78500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>117800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>148300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>126100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>126200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>115400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>141500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>110500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>120900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>101200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>102200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>75600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>102100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-64300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-55900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-98900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-122000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-59500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-71700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-67000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-60000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-36900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-47400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-65300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-64300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-55900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-98900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-78100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-219100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-79000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-127500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-93000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-77000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-38300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-47400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,94 +7654,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-24800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-24500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-17500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-17200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-12700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-8200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-82900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>18800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>55800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-19300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-17200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>80200</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-82400</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-162200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-133900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-160500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-168600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-157900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-135000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-180700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-115900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-196300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-139800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-119800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-50200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-62500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-68800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-44300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-45500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-83400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-74700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-30300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-28200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-36800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>-600</v>
       </c>
       <c r="E102" s="3">
         <v>500</v>
       </c>
       <c r="F102" s="3">
+        <v>500</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-89200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-21900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>42700</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HESM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>HESM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,227 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>363100</v>
+      </c>
+      <c r="E8" s="3">
         <v>324000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>305000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>314600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>334800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>313400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>312400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>316300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>303900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>294800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>288800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>266500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>264800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>269800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>290800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>305900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>214900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>190300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>174200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>221500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>169500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>164700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>157000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>150500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>146700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>138300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>130300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>120300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>119000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -966,8 +973,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1065,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1355,97 +1375,103 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E15" s="3">
         <v>47000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>47400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>46400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>45500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>45000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>44400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>43500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>39500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>38900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>38500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>36000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>35400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>32600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>36100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>30600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>30200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>30000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>29300</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>28500</v>
       </c>
       <c r="AB15" s="3">
         <v>28500</v>
       </c>
       <c r="AC15" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AD15" s="3">
         <v>26800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>24700</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E17" s="3">
         <v>125900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>116300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>118200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>130800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>118100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>116900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>116400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>111800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>138000</v>
       </c>
       <c r="Q17" s="3">
         <v>138000</v>
       </c>
       <c r="R17" s="3">
+        <v>138000</v>
+      </c>
+      <c r="S17" s="3">
         <v>217000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>115600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>99100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>78500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>72400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>69700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>67700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>72900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>69800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>69700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>67200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>71900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E18" s="3">
         <v>198100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>188700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>196400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>204000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>195300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>195500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>199900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>159200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>185600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>182500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>154700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>137200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>131800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>152800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>99300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>91200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>95700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>96800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>97100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>95000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>89300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>77600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>76900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>68600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>63100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>48400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,71 +1718,72 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1774,343 +1808,355 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>269700</v>
+      </c>
+      <c r="E21" s="3">
         <v>246800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>237700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>243900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>252300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>241300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>240300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>245400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>203700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>228900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>225400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>197800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>180300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>171700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>194000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>130300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>135800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>126600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>128300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>133500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>127700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>125200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>119300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>106900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>105400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>97100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>89900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>73100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>66100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E22" s="3">
         <v>43800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>41600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>39900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>16800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>52300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>500</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
       <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E23" s="3">
         <v>156000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>148700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>156800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>166900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>158900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>164600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>170500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>165600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>162100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>134400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>117600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>109500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>130700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>87400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>74400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>95300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>45100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>96800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>94600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>89000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>77100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>76500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>68100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>63100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>48400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1700</v>
       </c>
       <c r="Q24" s="3">
         <v>1700</v>
       </c>
       <c r="R24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2130,8 +2176,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E26" s="3">
         <v>147900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>142200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>149800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>159400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>151800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>159600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>165100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>162000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>159600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>132300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>115800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>129000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>74400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>95300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>45100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>96800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>94600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>89000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>77100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>76500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>68100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>63100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>48400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E27" s="3">
         <v>25100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>23200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>16900</v>
       </c>
       <c r="J27" s="3">
         <v>16900</v>
       </c>
       <c r="K27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L27" s="3">
         <v>9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>18300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>16700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>14500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>14700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>11200</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>48400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,71 +2820,74 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2842,97 +2912,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E33" s="3">
         <v>25100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>23200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>16900</v>
       </c>
       <c r="J33" s="3">
         <v>16900</v>
       </c>
       <c r="K33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L33" s="3">
         <v>9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>18300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>16700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>14500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>14700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>11200</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>48400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E35" s="3">
         <v>25100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>23200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>16900</v>
       </c>
       <c r="J35" s="3">
         <v>16900</v>
       </c>
       <c r="K35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L35" s="3">
         <v>9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>18300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>16700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>14500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>14700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>11200</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>48400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>109300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>34600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>56500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>37500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>47200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>48000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>43000</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3447,97 +3537,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E43" s="3">
         <v>110300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>123000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>130700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>153600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>137500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>120300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>135500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>105200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>108100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>93200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>107100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>87900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>68300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>60100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>60500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>67800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>65500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>62500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>67700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>59800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>59700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>58100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>60300</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3625,258 +3721,267 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1900</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E46" s="3">
         <v>114100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>132300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>146800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>158400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>147200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>133100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>151500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>101400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>103700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>87900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>95900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>79200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>76100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>67200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>180400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>105200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>119700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>107000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>111400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>108500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>101600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>62200</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E47" s="3">
         <v>93300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>97600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>98000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>103300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>109300</v>
       </c>
       <c r="O47" s="3">
         <v>109300</v>
       </c>
       <c r="P47" s="3">
+        <v>109300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>108700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>109000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>90300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>74300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>68600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>67300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>41300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>24300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3892,97 +3997,103 @@
       <c r="AE47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3207800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3188300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3183000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3172800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3159600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3144600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3117900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3125000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3118100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3094500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3111300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3103300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3068600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3028700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3010900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2823900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2757400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2726700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2735300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2630500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2578300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2527100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2520500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2506400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2507400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2518800</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E52" s="3">
         <v>264000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>185500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>188500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>196100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>198100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>119400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>125100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>52500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>55400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>58400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10100</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3775500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3659700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3578500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3588200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3601500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3598700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3482500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3485600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3455800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3386400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3388600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3374500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3371700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3323600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3314500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3277700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3005300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2925900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2870600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2991200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2805400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2742000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2661300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2635100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2618300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2612700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2591100</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,147 +4711,151 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E57" s="3">
         <v>51100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>60500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>82600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>51000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>59900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>56000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>78500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>65300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>47900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>28700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>36100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>42500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>19200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>22700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>278500</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>22500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2500</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
@@ -4729,17 +4863,17 @@
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>11300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4759,249 +4893,258 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99900</v>
+      </c>
+      <c r="E59" s="3">
         <v>90200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>92000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>86400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>42900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>94500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>87300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>97600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>61100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>46200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>36200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>92400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>75700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>59200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>34900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>39700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>31500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>26200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>35100</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>173800</v>
+      </c>
+      <c r="E60" s="3">
         <v>148800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>138500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>159500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>157500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>152500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>143800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>168700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>127000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>94300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>125000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>132300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>157800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>145800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>176100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>126400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>94100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>64900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>138100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>111800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>101700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>70400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>74400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>50700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>48900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>313600</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3138300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3061200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2985100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2883100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2909000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2937400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2538400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2543500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2595100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1817300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1886200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1895500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1822700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1812100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1753500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>969800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -5026,97 +5169,103 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E62" s="3">
         <v>14900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6000</v>
-      </c>
-      <c r="X62" s="3">
-        <v>5500</v>
       </c>
       <c r="Y62" s="3">
         <v>5500</v>
       </c>
       <c r="Z62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="AA62" s="3">
         <v>5400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>4100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4500</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3408100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3357600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3350600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3343100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3353700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3350000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3278600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3281500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3320100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3202400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3204600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3249500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3245500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3195400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3183800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3146200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2498900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2416200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2356200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2473200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2286100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2222500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2141300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2114300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2095100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2089500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>318100</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5733,28 +5901,28 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>15500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>15300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>15100</v>
-      </c>
-      <c r="V70" s="3">
-        <v>14900</v>
       </c>
       <c r="W70" s="3">
         <v>14900</v>
       </c>
       <c r="X70" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="Y70" s="3">
         <v>14700</v>
       </c>
       <c r="Z70" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="AA70" s="3">
         <v>14800</v>
@@ -5763,7 +5931,7 @@
         <v>14800</v>
       </c>
       <c r="AC70" s="3">
-        <v>0</v>
+        <v>14800</v>
       </c>
       <c r="AD70" s="3">
         <v>0</v>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,8 +6031,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5949,8 +6123,11 @@
       <c r="AE72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>367400</v>
+      </c>
+      <c r="E76" s="3">
         <v>302100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>245100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>247800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>248700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>203900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>204100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>135700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>184000</v>
       </c>
       <c r="M76" s="3">
         <v>184000</v>
       </c>
       <c r="N76" s="3">
+        <v>184000</v>
+      </c>
+      <c r="O76" s="3">
         <v>125000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>126200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>128200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>130700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>131500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>490900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>494400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>499300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>503100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>504400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>504800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>505300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>506000</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>508400</v>
       </c>
       <c r="AB76" s="3">
         <v>508400</v>
       </c>
       <c r="AC76" s="3">
+        <v>508400</v>
+      </c>
+      <c r="AD76" s="3">
         <v>2273000</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AE76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E81" s="3">
         <v>25100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>23200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>16900</v>
       </c>
       <c r="J81" s="3">
         <v>16900</v>
       </c>
       <c r="K81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L81" s="3">
         <v>9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>18300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>16700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>14500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>14700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>11200</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>48400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E83" s="3">
         <v>47000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>45500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>44400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>39500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>37500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>30600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>29300</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>28500</v>
       </c>
       <c r="AB83" s="3">
         <v>28500</v>
       </c>
       <c r="AC83" s="3">
+        <v>28500</v>
+      </c>
+      <c r="AD83" s="3">
         <v>26800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>24700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E89" s="3">
         <v>204600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>198700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>222600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>234700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>213200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>190600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>223500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>182000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>165400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>174500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>149600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>177400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>140200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>78500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>117800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>148300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>126100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>126200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>115400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>141500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>110500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>120900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>101200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>102200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>75600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>102100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-64300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-65900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-55900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-55100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-98900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-78100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-122000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-55900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-59500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-71700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-36900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-29200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-47400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-65300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-61600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-55900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-98900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-78100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-219100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-79000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-127500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-71700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-93000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-77000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-61200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-38300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-47400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-65300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-67100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,97 +7888,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-25900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-25100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-24800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-24500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-24200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-17500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-17200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-8200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-8100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-8000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-7600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-82900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>18800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>55800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-19300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-17200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>80200</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-82400</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,97 +8254,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-162500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-162200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-133900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-160500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-168600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-157900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-135000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-180700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-115900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-196300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-139800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-119800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-50200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-109100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-62500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-68800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-44300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-45500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-83400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-74700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-30300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-28200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-36800</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-40400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
-      </c>
-      <c r="E102" s="3">
-        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>500</v>
       </c>
       <c r="G102" s="3">
+        <v>500</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-89200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-21900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>42700</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
